--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="2">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D23" s="16" t="n">
-        <v>4848.095</v>
+        <v>11284.427</v>
       </c>
       <c r="E23" s="6" t="n"/>
     </row>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="D24" s="16" t="n">
-        <v>6683.032</v>
+        <v>15555.424</v>
       </c>
       <c r="E24" s="6" t="n"/>
     </row>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D25" s="16" t="n">
-        <v>9503.041999999999</v>
+        <v>22119.28</v>
       </c>
       <c r="E25" s="6" t="n"/>
     </row>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D26" s="16" t="n">
-        <v>14177.304</v>
+        <v>32999.091</v>
       </c>
       <c r="E26" s="6" t="n"/>
     </row>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D27" s="16" t="n">
-        <v>25573.226</v>
+        <v>59524.242</v>
       </c>
       <c r="E27" s="6" t="n"/>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D28" s="16" t="n">
-        <v>33106.119</v>
+        <v>77057.803</v>
       </c>
       <c r="E28" s="6" t="n"/>
     </row>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D36" s="16" t="n">
-        <v>3136</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="24">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="D37" s="16" t="n">
-        <v>4696</v>
+        <v>9150</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="24">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="2">

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="2">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D23" s="16" t="n">
-        <v>11284.427</v>
+        <v>4848.095</v>
       </c>
       <c r="E23" s="6" t="n"/>
     </row>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="D24" s="16" t="n">
-        <v>15555.424</v>
+        <v>6683.032</v>
       </c>
       <c r="E24" s="6" t="n"/>
     </row>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D25" s="16" t="n">
-        <v>22119.28</v>
+        <v>9503.041999999999</v>
       </c>
       <c r="E25" s="6" t="n"/>
     </row>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D26" s="16" t="n">
-        <v>32999.091</v>
+        <v>14177.304</v>
       </c>
       <c r="E26" s="6" t="n"/>
     </row>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D27" s="16" t="n">
-        <v>59524.242</v>
+        <v>25573.226</v>
       </c>
       <c r="E27" s="6" t="n"/>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D28" s="16" t="n">
-        <v>77057.803</v>
+        <v>33106.119</v>
       </c>
       <c r="E28" s="6" t="n"/>
     </row>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D36" s="16" t="n">
-        <v>6250</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="24">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="D37" s="16" t="n">
-        <v>9150</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="24">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A30:D30"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/TUERCAS dismay.xlsx
+++ b/server/LISTAS/mi/TUERCAS dismay.xlsx
@@ -785,7 +785,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="2">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="D23" s="16" t="n">
-        <v>4848.095</v>
+        <v>11050</v>
       </c>
       <c r="E23" s="6" t="n"/>
     </row>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="D24" s="16" t="n">
-        <v>6683.032</v>
+        <v>13650</v>
       </c>
       <c r="E24" s="6" t="n"/>
     </row>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D25" s="16" t="n">
-        <v>9503.041999999999</v>
+        <v>19500</v>
       </c>
       <c r="E25" s="6" t="n"/>
     </row>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D26" s="16" t="n">
-        <v>14177.304</v>
+        <v>28600</v>
       </c>
       <c r="E26" s="6" t="n"/>
     </row>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D27" s="16" t="n">
-        <v>25573.226</v>
+        <v>52000</v>
       </c>
       <c r="E27" s="6" t="n"/>
     </row>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="D28" s="16" t="n">
-        <v>33106.119</v>
+        <v>71500</v>
       </c>
       <c r="E28" s="6" t="n"/>
     </row>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="D36" s="16" t="n">
-        <v>3136</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="24">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="D37" s="16" t="n">
-        <v>4696</v>
+        <v>8730</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1" s="24">
@@ -1095,8 +1095,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
